--- a/Dicionario_base_final.xlsx
+++ b/Dicionario_base_final.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonyarrais/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13811F11-7B30-2B4C-9D4A-6C3A41AF1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -424,24 +433,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -449,7 +460,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -470,15 +481,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="4">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -487,167 +507,162 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFECECEC"/>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFECECEC"/>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFECECEC"/>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="3" pivot="0" name="Página1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Página1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="Página1-style 2">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Página1-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D33" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:D33">
   <tableColumns count="4">
-    <tableColumn name="Coluna" id="1"/>
-    <tableColumn name="Descrição" id="2"/>
-    <tableColumn name="Tipo" id="3"/>
-    <tableColumn name="Faixa de valores" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Coluna"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipo"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Faixa de valores" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Página1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A34:D64" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A34:D64" headerRowCount="0">
   <tableColumns count="4">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="Página1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Página1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -837,26 +852,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.63"/>
-    <col customWidth="1" min="2" max="2" width="128.75"/>
-    <col customWidth="1" min="3" max="3" width="9.0"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="128.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -884,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -898,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -912,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -926,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -940,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -954,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -968,7 +988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -982,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1052,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1080,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -1122,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1150,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -1164,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1178,7 +1198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -1192,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -1206,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -1234,11 +1254,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1248,81 +1268,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1332,11 +1352,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1346,11 +1366,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1360,11 +1380,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1374,11 +1394,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1388,25 +1408,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -1416,25 +1436,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1444,25 +1464,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1472,25 +1492,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1500,263 +1520,263 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+      <c r="C47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
+      <c r="C49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="10" t="s">
+      <c r="C51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="10" t="s">
+      <c r="C53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="s">
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="C55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="s">
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="10" t="s">
+      <c r="C57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="10" t="s">
+      <c r="C59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="10" t="s">
+      <c r="C60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="10" t="s">
+      <c r="C61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="10" t="s">
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="10" t="s">
+      <c r="C63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>